--- a/Excel/8c.xlsx
+++ b/Excel/8c.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amit\Code\React\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0179F375-D2E0-47B1-8A33-77411C508D6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -12,21 +18,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="140">
   <si>
     <t>GENDER</t>
   </si>
@@ -395,15 +391,6 @@
   </si>
   <si>
     <t>D Sanyal</t>
-  </si>
-  <si>
-    <t>class 8 c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">savita </t>
-  </si>
-  <si>
-    <t>2020-2021</t>
   </si>
   <si>
     <t>ADISHESH.VS</t>
@@ -460,8 +447,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -608,9 +595,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -672,7 +656,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -704,9 +688,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -738,6 +740,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -913,25 +933,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K467"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>120</v>
       </c>
@@ -957,7 +977,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -983,7 +1003,7 @@
         <v>38931</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1009,7 +1029,7 @@
         <v>39027</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1035,7 +1055,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1061,7 +1081,7 @@
         <v>39466</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1087,7 +1107,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1113,7 +1133,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1139,7 +1159,7 @@
         <v>39330</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1167,7 +1187,7 @@
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1193,7 +1213,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1219,7 +1239,7 @@
         <v>39086</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1245,7 +1265,7 @@
         <v>39692</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1271,7 +1291,7 @@
         <v>39266</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1297,7 +1317,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1323,7 +1343,7 @@
         <v>39287</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1349,7 +1369,7 @@
         <v>39163</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1375,7 +1395,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1401,7 +1421,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1427,7 +1447,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1453,7 +1473,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1479,7 +1499,7 @@
         <v>39030</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1505,7 +1525,7 @@
         <v>39229</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1531,7 +1551,7 @@
         <v>39036</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1557,7 +1577,7 @@
         <v>39115</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1583,7 +1603,7 @@
         <v>39300</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1609,7 +1629,7 @@
         <v>39111</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1635,7 +1655,7 @@
         <v>39395</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1661,7 +1681,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1687,7 +1707,7 @@
         <v>39282</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1713,7 +1733,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1739,7 +1759,7 @@
         <v>39431</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1760,3045 +1780,3045 @@
         <v>9401081224</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="18"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="18"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="18"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="18"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="18"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="18"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="18"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="18"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="18"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="18"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="18"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="18"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="18"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="18"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="18"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="18"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="18"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="18"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="18"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="18"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="18"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="18"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="18"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="18"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="18"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="18"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="18"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="18"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="18"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="18"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="18"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="18"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="18"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="18"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="18"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="18"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="18"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="18"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="18"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="18"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="18"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="18"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="18"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="2:6">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="18"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="2:6">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="18"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="18"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="2:6">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="18"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="2:6">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="18"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="2:6">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="18"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="2:6">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="18"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="2:6">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="18"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="2:6">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="18"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="2:6">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="18"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="2:6">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="18"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="2:6">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="18"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="2:6">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="18"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="2:6">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="18"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="2:6">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="18"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="2:6">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="18"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="2:6">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="18"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="2:6">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="18"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="2:6">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="18"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="2:6">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="18"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="2:6">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="18"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="2:6">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="18"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="2:6">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="18"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="2:6">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="18"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="2:6">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="18"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="2:6">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="18"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="2:6">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="18"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="2:6">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="18"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="2:6">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="18"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="2:6">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="18"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="2:6">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="18"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="2:6">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="18"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="2:6">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="18"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="2:6">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="18"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="2:6">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="18"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="2:6">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="18"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="2:6">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="18"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="2:6">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="18"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="2:6">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="18"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="2:6">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="18"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="2:6">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="18"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="2:6">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="18"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="2:6">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="18"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="2:6">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="18"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="2:6">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="18"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="2:6">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="18"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="2:6">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="18"/>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="2:6">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="18"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="2:6">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="18"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="2:6">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="18"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="2:6">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="18"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="2:6">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="18"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="2:6">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="18"/>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="2:6">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="18"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="2:6">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="18"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="2:6">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="18"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="2:6">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="18"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="2:6">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="18"/>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="2:6">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="18"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="2:6">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="18"/>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="2:6">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="18"/>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="2:6">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="18"/>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="2:6">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="18"/>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="2:6">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="18"/>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="2:6">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="18"/>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="2:6">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="18"/>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="2:6">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="18"/>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="2:6">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="18"/>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="2:6">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="18"/>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="2:6">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="18"/>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="2:6">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="18"/>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="2:6">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="18"/>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="2:6">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="18"/>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="2:6">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="18"/>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="2:6">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="18"/>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="2:6">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="18"/>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="2:6">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="18"/>
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="2:6">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="18"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="2:6">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="18"/>
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="2:6">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="18"/>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="2:6">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="18"/>
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="2:6">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="18"/>
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="2:6">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="18"/>
       <c r="F158" s="1"/>
     </row>
-    <row r="159" spans="2:6">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="18"/>
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="2:6">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="18"/>
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="2:6">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="18"/>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="2:6">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="18"/>
       <c r="F162" s="1"/>
     </row>
-    <row r="163" spans="2:6">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="18"/>
       <c r="F163" s="1"/>
     </row>
-    <row r="164" spans="2:6">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="18"/>
       <c r="F164" s="1"/>
     </row>
-    <row r="165" spans="2:6">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="18"/>
       <c r="F165" s="1"/>
     </row>
-    <row r="166" spans="2:6">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="18"/>
       <c r="F166" s="1"/>
     </row>
-    <row r="167" spans="2:6">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="18"/>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="2:6">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="18"/>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="2:6">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="18"/>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="2:6">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="18"/>
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="2:6">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="18"/>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="2:6">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="18"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="2:6">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="18"/>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="2:6">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="18"/>
       <c r="F174" s="1"/>
     </row>
-    <row r="175" spans="2:6">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="18"/>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="2:6">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="18"/>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="2:6">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="18"/>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="2:6">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="18"/>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="2:6">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="18"/>
       <c r="F179" s="1"/>
     </row>
-    <row r="180" spans="2:6">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="18"/>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="2:6">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="18"/>
       <c r="F181" s="1"/>
     </row>
-    <row r="182" spans="2:6">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="18"/>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="2:6">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="18"/>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="2:6">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="18"/>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="2:6">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="18"/>
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="2:6">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="18"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="2:6">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="18"/>
       <c r="F187" s="1"/>
     </row>
-    <row r="188" spans="2:6">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="18"/>
       <c r="F188" s="1"/>
     </row>
-    <row r="189" spans="2:6">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="18"/>
       <c r="F189" s="1"/>
     </row>
-    <row r="190" spans="2:6">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="18"/>
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="2:6">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="18"/>
       <c r="F191" s="1"/>
     </row>
-    <row r="192" spans="2:6">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="18"/>
       <c r="F192" s="1"/>
     </row>
-    <row r="193" spans="2:6">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="18"/>
       <c r="F193" s="1"/>
     </row>
-    <row r="194" spans="2:6">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="18"/>
       <c r="F194" s="1"/>
     </row>
-    <row r="195" spans="2:6">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="18"/>
       <c r="F195" s="1"/>
     </row>
-    <row r="196" spans="2:6">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="18"/>
       <c r="F196" s="1"/>
     </row>
-    <row r="197" spans="2:6">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="18"/>
       <c r="F197" s="1"/>
     </row>
-    <row r="198" spans="2:6">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="18"/>
       <c r="F198" s="1"/>
     </row>
-    <row r="199" spans="2:6">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="18"/>
       <c r="F199" s="1"/>
     </row>
-    <row r="200" spans="2:6">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="18"/>
       <c r="F200" s="1"/>
     </row>
-    <row r="201" spans="2:6">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="18"/>
       <c r="F201" s="1"/>
     </row>
-    <row r="202" spans="2:6">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="18"/>
       <c r="F202" s="1"/>
     </row>
-    <row r="203" spans="2:6">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="18"/>
       <c r="F203" s="1"/>
     </row>
-    <row r="204" spans="2:6">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="18"/>
       <c r="F204" s="1"/>
     </row>
-    <row r="205" spans="2:6">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="18"/>
       <c r="F205" s="1"/>
     </row>
-    <row r="206" spans="2:6">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="18"/>
       <c r="F206" s="1"/>
     </row>
-    <row r="207" spans="2:6">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="18"/>
       <c r="F207" s="1"/>
     </row>
-    <row r="208" spans="2:6">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="18"/>
       <c r="F208" s="1"/>
     </row>
-    <row r="209" spans="2:6">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="18"/>
       <c r="F209" s="1"/>
     </row>
-    <row r="210" spans="2:6">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="18"/>
       <c r="F210" s="1"/>
     </row>
-    <row r="211" spans="2:6">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="18"/>
       <c r="F211" s="1"/>
     </row>
-    <row r="212" spans="2:6">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="18"/>
       <c r="F212" s="1"/>
     </row>
-    <row r="213" spans="2:6">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="18"/>
       <c r="F213" s="1"/>
     </row>
-    <row r="214" spans="2:6">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="18"/>
       <c r="F214" s="1"/>
     </row>
-    <row r="215" spans="2:6">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="18"/>
       <c r="F215" s="1"/>
     </row>
-    <row r="216" spans="2:6">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="18"/>
       <c r="F216" s="1"/>
     </row>
-    <row r="217" spans="2:6">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="18"/>
       <c r="F217" s="1"/>
     </row>
-    <row r="218" spans="2:6">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="18"/>
       <c r="F218" s="1"/>
     </row>
-    <row r="219" spans="2:6">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="18"/>
       <c r="F219" s="1"/>
     </row>
-    <row r="220" spans="2:6">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="18"/>
       <c r="F220" s="1"/>
     </row>
-    <row r="221" spans="2:6">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="18"/>
       <c r="F221" s="1"/>
     </row>
-    <row r="222" spans="2:6">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="18"/>
       <c r="F222" s="1"/>
     </row>
-    <row r="223" spans="2:6">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="18"/>
       <c r="F223" s="1"/>
     </row>
-    <row r="224" spans="2:6">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="18"/>
       <c r="F224" s="1"/>
     </row>
-    <row r="225" spans="2:6">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="18"/>
       <c r="F225" s="1"/>
     </row>
-    <row r="226" spans="2:6">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="18"/>
       <c r="F226" s="1"/>
     </row>
-    <row r="227" spans="2:6">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="18"/>
       <c r="F227" s="1"/>
     </row>
-    <row r="228" spans="2:6">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="18"/>
       <c r="F228" s="1"/>
     </row>
-    <row r="229" spans="2:6">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="18"/>
       <c r="F229" s="1"/>
     </row>
-    <row r="230" spans="2:6">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="18"/>
       <c r="F230" s="1"/>
     </row>
-    <row r="231" spans="2:6">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="18"/>
       <c r="F231" s="1"/>
     </row>
-    <row r="232" spans="2:6">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="18"/>
       <c r="F232" s="1"/>
     </row>
-    <row r="233" spans="2:6">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="18"/>
       <c r="F233" s="1"/>
     </row>
-    <row r="234" spans="2:6">
+    <row r="234" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="18"/>
       <c r="F234" s="1"/>
     </row>
-    <row r="235" spans="2:6">
+    <row r="235" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="18"/>
       <c r="F235" s="1"/>
     </row>
-    <row r="236" spans="2:6">
+    <row r="236" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="18"/>
       <c r="F236" s="1"/>
     </row>
-    <row r="237" spans="2:6">
+    <row r="237" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="18"/>
       <c r="F237" s="1"/>
     </row>
-    <row r="238" spans="2:6">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="18"/>
       <c r="F238" s="1"/>
     </row>
-    <row r="239" spans="2:6">
+    <row r="239" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="18"/>
       <c r="F239" s="1"/>
     </row>
-    <row r="240" spans="2:6">
+    <row r="240" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="18"/>
       <c r="F240" s="1"/>
     </row>
-    <row r="241" spans="2:6">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="18"/>
       <c r="F241" s="1"/>
     </row>
-    <row r="242" spans="2:6">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="18"/>
       <c r="F242" s="1"/>
     </row>
-    <row r="243" spans="2:6">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="18"/>
       <c r="F243" s="1"/>
     </row>
-    <row r="244" spans="2:6">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="18"/>
       <c r="F244" s="1"/>
     </row>
-    <row r="245" spans="2:6">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="18"/>
       <c r="F245" s="1"/>
     </row>
-    <row r="246" spans="2:6">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="18"/>
       <c r="F246" s="1"/>
     </row>
-    <row r="247" spans="2:6">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="18"/>
       <c r="F247" s="1"/>
     </row>
-    <row r="248" spans="2:6">
+    <row r="248" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="18"/>
       <c r="F248" s="1"/>
     </row>
-    <row r="249" spans="2:6">
+    <row r="249" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="18"/>
       <c r="F249" s="1"/>
     </row>
-    <row r="250" spans="2:6">
+    <row r="250" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="18"/>
       <c r="F250" s="1"/>
     </row>
-    <row r="251" spans="2:6">
+    <row r="251" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="18"/>
       <c r="F251" s="1"/>
     </row>
-    <row r="252" spans="2:6">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="18"/>
       <c r="F252" s="1"/>
     </row>
-    <row r="253" spans="2:6">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="18"/>
       <c r="F253" s="1"/>
     </row>
-    <row r="254" spans="2:6">
+    <row r="254" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="18"/>
       <c r="F254" s="1"/>
     </row>
-    <row r="255" spans="2:6">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="18"/>
       <c r="F255" s="1"/>
     </row>
-    <row r="256" spans="2:6">
+    <row r="256" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="18"/>
       <c r="F256" s="1"/>
     </row>
-    <row r="257" spans="2:6">
+    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="18"/>
       <c r="F257" s="1"/>
     </row>
-    <row r="258" spans="2:6">
+    <row r="258" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="18"/>
       <c r="F258" s="1"/>
     </row>
-    <row r="259" spans="2:6">
+    <row r="259" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="18"/>
       <c r="F259" s="1"/>
     </row>
-    <row r="260" spans="2:6">
+    <row r="260" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="18"/>
       <c r="F260" s="1"/>
     </row>
-    <row r="261" spans="2:6">
+    <row r="261" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="18"/>
       <c r="F261" s="1"/>
     </row>
-    <row r="262" spans="2:6">
+    <row r="262" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="18"/>
       <c r="F262" s="1"/>
     </row>
-    <row r="263" spans="2:6">
+    <row r="263" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="18"/>
       <c r="F263" s="1"/>
     </row>
-    <row r="264" spans="2:6">
+    <row r="264" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="18"/>
       <c r="F264" s="1"/>
     </row>
-    <row r="265" spans="2:6">
+    <row r="265" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="18"/>
       <c r="F265" s="1"/>
     </row>
-    <row r="266" spans="2:6">
+    <row r="266" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="18"/>
       <c r="F266" s="1"/>
     </row>
-    <row r="267" spans="2:6">
+    <row r="267" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="18"/>
       <c r="F267" s="1"/>
     </row>
-    <row r="268" spans="2:6">
+    <row r="268" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="18"/>
       <c r="F268" s="1"/>
     </row>
-    <row r="269" spans="2:6">
+    <row r="269" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="18"/>
       <c r="F269" s="1"/>
     </row>
-    <row r="270" spans="2:6">
+    <row r="270" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="18"/>
       <c r="F270" s="1"/>
     </row>
-    <row r="271" spans="2:6">
+    <row r="271" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="18"/>
       <c r="F271" s="1"/>
     </row>
-    <row r="272" spans="2:6">
+    <row r="272" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="18"/>
       <c r="F272" s="1"/>
     </row>
-    <row r="273" spans="2:6">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="18"/>
       <c r="F273" s="1"/>
     </row>
-    <row r="274" spans="2:6">
+    <row r="274" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="18"/>
       <c r="F274" s="1"/>
     </row>
-    <row r="275" spans="2:6">
+    <row r="275" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="18"/>
       <c r="F275" s="1"/>
     </row>
-    <row r="276" spans="2:6">
+    <row r="276" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="18"/>
       <c r="F276" s="1"/>
     </row>
-    <row r="277" spans="2:6">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="18"/>
       <c r="F277" s="1"/>
     </row>
-    <row r="278" spans="2:6">
+    <row r="278" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="18"/>
       <c r="F278" s="1"/>
     </row>
-    <row r="279" spans="2:6">
+    <row r="279" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="18"/>
       <c r="F279" s="1"/>
     </row>
-    <row r="280" spans="2:6">
+    <row r="280" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="18"/>
       <c r="F280" s="1"/>
     </row>
-    <row r="281" spans="2:6">
+    <row r="281" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="18"/>
       <c r="F281" s="1"/>
     </row>
-    <row r="282" spans="2:6">
+    <row r="282" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="18"/>
       <c r="F282" s="1"/>
     </row>
-    <row r="283" spans="2:6">
+    <row r="283" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="18"/>
       <c r="F283" s="1"/>
     </row>
-    <row r="284" spans="2:6">
+    <row r="284" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="18"/>
       <c r="F284" s="1"/>
     </row>
-    <row r="285" spans="2:6">
+    <row r="285" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="18"/>
       <c r="F285" s="1"/>
     </row>
-    <row r="286" spans="2:6">
+    <row r="286" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="18"/>
       <c r="F286" s="1"/>
     </row>
-    <row r="287" spans="2:6">
+    <row r="287" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="18"/>
       <c r="F287" s="1"/>
     </row>
-    <row r="288" spans="2:6">
+    <row r="288" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="18"/>
       <c r="F288" s="1"/>
     </row>
-    <row r="289" spans="2:6">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="18"/>
       <c r="F289" s="1"/>
     </row>
-    <row r="290" spans="2:6">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="18"/>
       <c r="F290" s="1"/>
     </row>
-    <row r="291" spans="2:6">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="18"/>
       <c r="F291" s="1"/>
     </row>
-    <row r="292" spans="2:6">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="18"/>
       <c r="F292" s="1"/>
     </row>
-    <row r="293" spans="2:6">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="18"/>
       <c r="F293" s="1"/>
     </row>
-    <row r="294" spans="2:6">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="18"/>
       <c r="F294" s="1"/>
     </row>
-    <row r="295" spans="2:6">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="18"/>
       <c r="F295" s="1"/>
     </row>
-    <row r="296" spans="2:6">
+    <row r="296" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="18"/>
       <c r="F296" s="1"/>
     </row>
-    <row r="297" spans="2:6">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="18"/>
       <c r="F297" s="1"/>
     </row>
-    <row r="298" spans="2:6">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="18"/>
       <c r="F298" s="1"/>
     </row>
-    <row r="299" spans="2:6">
+    <row r="299" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="18"/>
       <c r="F299" s="1"/>
     </row>
-    <row r="300" spans="2:6">
+    <row r="300" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="18"/>
       <c r="F300" s="1"/>
     </row>
-    <row r="301" spans="2:6">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="18"/>
       <c r="F301" s="1"/>
     </row>
-    <row r="302" spans="2:6">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="18"/>
       <c r="F302" s="1"/>
     </row>
-    <row r="303" spans="2:6">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="18"/>
       <c r="F303" s="1"/>
     </row>
-    <row r="304" spans="2:6">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="18"/>
       <c r="F304" s="1"/>
     </row>
-    <row r="305" spans="2:6">
+    <row r="305" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="18"/>
       <c r="F305" s="1"/>
     </row>
-    <row r="306" spans="2:6">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="18"/>
       <c r="F306" s="1"/>
     </row>
-    <row r="307" spans="2:6">
+    <row r="307" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="18"/>
       <c r="F307" s="1"/>
     </row>
-    <row r="308" spans="2:6">
+    <row r="308" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="18"/>
       <c r="F308" s="1"/>
     </row>
-    <row r="309" spans="2:6">
+    <row r="309" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="18"/>
       <c r="F309" s="1"/>
     </row>
-    <row r="310" spans="2:6">
+    <row r="310" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="18"/>
       <c r="F310" s="1"/>
     </row>
-    <row r="311" spans="2:6">
+    <row r="311" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="18"/>
       <c r="F311" s="1"/>
     </row>
-    <row r="312" spans="2:6">
+    <row r="312" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="18"/>
       <c r="F312" s="1"/>
     </row>
-    <row r="313" spans="2:6">
+    <row r="313" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="18"/>
       <c r="F313" s="1"/>
     </row>
-    <row r="314" spans="2:6">
+    <row r="314" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="18"/>
       <c r="F314" s="1"/>
     </row>
-    <row r="315" spans="2:6">
+    <row r="315" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="18"/>
       <c r="F315" s="1"/>
     </row>
-    <row r="316" spans="2:6">
+    <row r="316" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="18"/>
       <c r="F316" s="1"/>
     </row>
-    <row r="317" spans="2:6">
+    <row r="317" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="18"/>
       <c r="F317" s="1"/>
     </row>
-    <row r="318" spans="2:6">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="18"/>
       <c r="F318" s="1"/>
     </row>
-    <row r="319" spans="2:6">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="18"/>
       <c r="F319" s="1"/>
     </row>
-    <row r="320" spans="2:6">
+    <row r="320" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="18"/>
       <c r="F320" s="1"/>
     </row>
-    <row r="321" spans="2:6">
+    <row r="321" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="18"/>
       <c r="F321" s="1"/>
     </row>
-    <row r="322" spans="2:6">
+    <row r="322" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="18"/>
       <c r="F322" s="1"/>
     </row>
-    <row r="323" spans="2:6">
+    <row r="323" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="18"/>
       <c r="F323" s="1"/>
     </row>
-    <row r="324" spans="2:6">
+    <row r="324" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="18"/>
       <c r="F324" s="1"/>
     </row>
-    <row r="325" spans="2:6">
+    <row r="325" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="18"/>
       <c r="F325" s="1"/>
     </row>
-    <row r="326" spans="2:6">
+    <row r="326" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="18"/>
       <c r="F326" s="1"/>
     </row>
-    <row r="327" spans="2:6">
+    <row r="327" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="18"/>
       <c r="F327" s="1"/>
     </row>
-    <row r="328" spans="2:6">
+    <row r="328" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="18"/>
       <c r="F328" s="1"/>
     </row>
-    <row r="329" spans="2:6">
+    <row r="329" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="18"/>
       <c r="F329" s="1"/>
     </row>
-    <row r="330" spans="2:6">
+    <row r="330" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="18"/>
       <c r="F330" s="1"/>
     </row>
-    <row r="331" spans="2:6">
+    <row r="331" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="18"/>
       <c r="F331" s="1"/>
     </row>
-    <row r="332" spans="2:6">
+    <row r="332" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="18"/>
       <c r="F332" s="1"/>
     </row>
-    <row r="333" spans="2:6">
+    <row r="333" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="18"/>
       <c r="F333" s="1"/>
     </row>
-    <row r="334" spans="2:6">
+    <row r="334" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="18"/>
       <c r="F334" s="1"/>
     </row>
-    <row r="335" spans="2:6">
+    <row r="335" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="18"/>
       <c r="F335" s="1"/>
     </row>
-    <row r="336" spans="2:6">
+    <row r="336" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="18"/>
       <c r="F336" s="1"/>
     </row>
-    <row r="337" spans="2:6">
+    <row r="337" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="18"/>
       <c r="F337" s="1"/>
     </row>
-    <row r="338" spans="2:6">
+    <row r="338" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="18"/>
       <c r="F338" s="1"/>
     </row>
-    <row r="339" spans="2:6">
+    <row r="339" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="18"/>
       <c r="F339" s="1"/>
     </row>
-    <row r="340" spans="2:6">
+    <row r="340" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="18"/>
       <c r="F340" s="1"/>
     </row>
-    <row r="341" spans="2:6">
+    <row r="341" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="18"/>
       <c r="F341" s="1"/>
     </row>
-    <row r="342" spans="2:6">
+    <row r="342" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="18"/>
       <c r="F342" s="1"/>
     </row>
-    <row r="343" spans="2:6">
+    <row r="343" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="18"/>
       <c r="F343" s="1"/>
     </row>
-    <row r="344" spans="2:6">
+    <row r="344" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="18"/>
       <c r="F344" s="1"/>
     </row>
-    <row r="345" spans="2:6">
+    <row r="345" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="18"/>
       <c r="F345" s="1"/>
     </row>
-    <row r="346" spans="2:6">
+    <row r="346" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="18"/>
       <c r="F346" s="1"/>
     </row>
-    <row r="347" spans="2:6">
+    <row r="347" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="18"/>
       <c r="F347" s="1"/>
     </row>
-    <row r="348" spans="2:6">
+    <row r="348" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="18"/>
       <c r="F348" s="1"/>
     </row>
-    <row r="349" spans="2:6">
+    <row r="349" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="18"/>
       <c r="F349" s="1"/>
     </row>
-    <row r="350" spans="2:6">
+    <row r="350" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="18"/>
       <c r="F350" s="1"/>
     </row>
-    <row r="351" spans="2:6">
+    <row r="351" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="18"/>
       <c r="F351" s="1"/>
     </row>
-    <row r="352" spans="2:6">
+    <row r="352" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="18"/>
       <c r="F352" s="1"/>
     </row>
-    <row r="353" spans="2:6">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="18"/>
       <c r="F353" s="1"/>
     </row>
-    <row r="354" spans="2:6">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="18"/>
       <c r="F354" s="1"/>
     </row>
-    <row r="355" spans="2:6">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="18"/>
       <c r="F355" s="1"/>
     </row>
-    <row r="356" spans="2:6">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="18"/>
       <c r="F356" s="1"/>
     </row>
-    <row r="357" spans="2:6">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="18"/>
       <c r="F357" s="1"/>
     </row>
-    <row r="358" spans="2:6">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="18"/>
       <c r="F358" s="1"/>
     </row>
-    <row r="359" spans="2:6">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="18"/>
       <c r="F359" s="1"/>
     </row>
-    <row r="360" spans="2:6">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="18"/>
       <c r="F360" s="1"/>
     </row>
-    <row r="361" spans="2:6">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="18"/>
       <c r="F361" s="1"/>
     </row>
-    <row r="362" spans="2:6">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="18"/>
       <c r="F362" s="1"/>
     </row>
-    <row r="363" spans="2:6">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="18"/>
       <c r="F363" s="1"/>
     </row>
-    <row r="364" spans="2:6">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="18"/>
       <c r="F364" s="1"/>
     </row>
-    <row r="365" spans="2:6">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="18"/>
       <c r="F365" s="1"/>
     </row>
-    <row r="366" spans="2:6">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="18"/>
       <c r="F366" s="1"/>
     </row>
-    <row r="367" spans="2:6">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="18"/>
       <c r="F367" s="1"/>
     </row>
-    <row r="368" spans="2:6">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="18"/>
       <c r="F368" s="1"/>
     </row>
-    <row r="369" spans="2:6">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="18"/>
       <c r="F369" s="1"/>
     </row>
-    <row r="370" spans="2:6">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="18"/>
       <c r="F370" s="1"/>
     </row>
-    <row r="371" spans="2:6">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="18"/>
       <c r="F371" s="1"/>
     </row>
-    <row r="372" spans="2:6">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="18"/>
       <c r="F372" s="1"/>
     </row>
-    <row r="373" spans="2:6">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="18"/>
       <c r="F373" s="1"/>
     </row>
-    <row r="374" spans="2:6">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="18"/>
       <c r="F374" s="1"/>
     </row>
-    <row r="375" spans="2:6">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="18"/>
       <c r="F375" s="1"/>
     </row>
-    <row r="376" spans="2:6">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="18"/>
       <c r="F376" s="1"/>
     </row>
-    <row r="377" spans="2:6">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="18"/>
       <c r="F377" s="1"/>
     </row>
-    <row r="378" spans="2:6">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="18"/>
       <c r="F378" s="1"/>
     </row>
-    <row r="379" spans="2:6">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="18"/>
       <c r="F379" s="1"/>
     </row>
-    <row r="380" spans="2:6">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="18"/>
       <c r="F380" s="1"/>
     </row>
-    <row r="381" spans="2:6">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="18"/>
       <c r="F381" s="1"/>
     </row>
-    <row r="382" spans="2:6">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="18"/>
       <c r="F382" s="1"/>
     </row>
-    <row r="383" spans="2:6">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="18"/>
       <c r="F383" s="1"/>
     </row>
-    <row r="384" spans="2:6">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="18"/>
       <c r="F384" s="1"/>
     </row>
-    <row r="385" spans="2:6">
+    <row r="385" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="18"/>
       <c r="F385" s="1"/>
     </row>
-    <row r="386" spans="2:6">
+    <row r="386" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="18"/>
       <c r="F386" s="1"/>
     </row>
-    <row r="387" spans="2:6">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="18"/>
       <c r="F387" s="1"/>
     </row>
-    <row r="388" spans="2:6">
+    <row r="388" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="18"/>
       <c r="F388" s="1"/>
     </row>
-    <row r="389" spans="2:6">
+    <row r="389" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="18"/>
       <c r="F389" s="1"/>
     </row>
-    <row r="390" spans="2:6">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="18"/>
       <c r="F390" s="1"/>
     </row>
-    <row r="391" spans="2:6">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="18"/>
       <c r="F391" s="1"/>
     </row>
-    <row r="392" spans="2:6">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="18"/>
       <c r="F392" s="1"/>
     </row>
-    <row r="393" spans="2:6">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="18"/>
       <c r="F393" s="1"/>
     </row>
-    <row r="394" spans="2:6">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="18"/>
       <c r="F394" s="1"/>
     </row>
-    <row r="395" spans="2:6">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="18"/>
       <c r="F395" s="1"/>
     </row>
-    <row r="396" spans="2:6">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="18"/>
       <c r="F396" s="1"/>
     </row>
-    <row r="397" spans="2:6">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="18"/>
       <c r="F397" s="1"/>
     </row>
-    <row r="398" spans="2:6">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="18"/>
       <c r="F398" s="1"/>
     </row>
-    <row r="399" spans="2:6">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="18"/>
       <c r="F399" s="1"/>
     </row>
-    <row r="400" spans="2:6">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="18"/>
       <c r="F400" s="1"/>
     </row>
-    <row r="401" spans="2:6">
+    <row r="401" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="18"/>
       <c r="F401" s="1"/>
     </row>
-    <row r="402" spans="2:6">
+    <row r="402" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="18"/>
       <c r="F402" s="1"/>
     </row>
-    <row r="403" spans="2:6">
+    <row r="403" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="18"/>
       <c r="F403" s="1"/>
     </row>
-    <row r="404" spans="2:6">
+    <row r="404" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="18"/>
       <c r="F404" s="1"/>
     </row>
-    <row r="405" spans="2:6">
+    <row r="405" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="18"/>
       <c r="F405" s="1"/>
     </row>
-    <row r="406" spans="2:6">
+    <row r="406" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="18"/>
       <c r="F406" s="1"/>
     </row>
-    <row r="407" spans="2:6">
+    <row r="407" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="18"/>
       <c r="F407" s="1"/>
     </row>
-    <row r="408" spans="2:6">
+    <row r="408" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="18"/>
       <c r="F408" s="1"/>
     </row>
-    <row r="409" spans="2:6">
+    <row r="409" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="18"/>
       <c r="F409" s="1"/>
     </row>
-    <row r="410" spans="2:6">
+    <row r="410" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="18"/>
       <c r="F410" s="1"/>
     </row>
-    <row r="411" spans="2:6">
+    <row r="411" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="18"/>
       <c r="F411" s="1"/>
     </row>
-    <row r="412" spans="2:6">
+    <row r="412" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="18"/>
       <c r="F412" s="1"/>
     </row>
-    <row r="413" spans="2:6">
+    <row r="413" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="18"/>
       <c r="F413" s="1"/>
     </row>
-    <row r="414" spans="2:6">
+    <row r="414" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="18"/>
       <c r="F414" s="1"/>
     </row>
-    <row r="415" spans="2:6">
+    <row r="415" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="18"/>
       <c r="F415" s="1"/>
     </row>
-    <row r="416" spans="2:6">
+    <row r="416" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="18"/>
       <c r="F416" s="1"/>
     </row>
-    <row r="417" spans="2:6">
+    <row r="417" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="18"/>
       <c r="F417" s="1"/>
     </row>
-    <row r="418" spans="2:6">
+    <row r="418" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="18"/>
       <c r="F418" s="1"/>
     </row>
-    <row r="419" spans="2:6">
+    <row r="419" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="18"/>
       <c r="F419" s="1"/>
     </row>
-    <row r="420" spans="2:6">
+    <row r="420" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="18"/>
       <c r="F420" s="1"/>
     </row>
-    <row r="421" spans="2:6">
+    <row r="421" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="18"/>
       <c r="F421" s="1"/>
     </row>
-    <row r="422" spans="2:6">
+    <row r="422" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="18"/>
       <c r="F422" s="1"/>
     </row>
-    <row r="423" spans="2:6">
+    <row r="423" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="18"/>
       <c r="F423" s="1"/>
     </row>
-    <row r="424" spans="2:6">
+    <row r="424" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="18"/>
       <c r="F424" s="1"/>
     </row>
-    <row r="425" spans="2:6">
+    <row r="425" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="18"/>
       <c r="F425" s="1"/>
     </row>
-    <row r="426" spans="2:6">
+    <row r="426" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="18"/>
       <c r="F426" s="1"/>
     </row>
-    <row r="427" spans="2:6">
+    <row r="427" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="18"/>
       <c r="F427" s="1"/>
     </row>
-    <row r="428" spans="2:6">
+    <row r="428" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="18"/>
       <c r="F428" s="1"/>
     </row>
-    <row r="429" spans="2:6">
+    <row r="429" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="18"/>
       <c r="F429" s="1"/>
     </row>
-    <row r="430" spans="2:6">
+    <row r="430" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="18"/>
       <c r="F430" s="1"/>
     </row>
-    <row r="431" spans="2:6">
+    <row r="431" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="18"/>
       <c r="F431" s="1"/>
     </row>
-    <row r="432" spans="2:6">
+    <row r="432" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="18"/>
       <c r="F432" s="1"/>
     </row>
-    <row r="433" spans="2:6">
+    <row r="433" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="18"/>
       <c r="F433" s="1"/>
     </row>
-    <row r="434" spans="2:6">
+    <row r="434" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="18"/>
       <c r="F434" s="1"/>
     </row>
-    <row r="435" spans="2:6">
+    <row r="435" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="18"/>
       <c r="F435" s="1"/>
     </row>
-    <row r="436" spans="2:6">
+    <row r="436" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="18"/>
       <c r="F436" s="1"/>
     </row>
-    <row r="437" spans="2:6">
+    <row r="437" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="18"/>
       <c r="F437" s="1"/>
     </row>
-    <row r="438" spans="2:6">
+    <row r="438" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="18"/>
       <c r="F438" s="1"/>
     </row>
-    <row r="439" spans="2:6">
+    <row r="439" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="18"/>
       <c r="F439" s="1"/>
     </row>
-    <row r="440" spans="2:6">
+    <row r="440" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="18"/>
       <c r="F440" s="1"/>
     </row>
-    <row r="441" spans="2:6">
+    <row r="441" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="18"/>
       <c r="F441" s="1"/>
     </row>
-    <row r="442" spans="2:6">
+    <row r="442" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="18"/>
       <c r="F442" s="1"/>
     </row>
-    <row r="443" spans="2:6">
+    <row r="443" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="18"/>
       <c r="F443" s="1"/>
     </row>
-    <row r="444" spans="2:6">
+    <row r="444" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="18"/>
       <c r="F444" s="1"/>
     </row>
-    <row r="445" spans="2:6">
+    <row r="445" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="18"/>
       <c r="F445" s="1"/>
     </row>
-    <row r="446" spans="2:6">
+    <row r="446" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="18"/>
       <c r="F446" s="1"/>
     </row>
-    <row r="447" spans="2:6">
+    <row r="447" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="18"/>
       <c r="F447" s="1"/>
     </row>
-    <row r="448" spans="2:6">
+    <row r="448" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="18"/>
       <c r="F448" s="1"/>
     </row>
-    <row r="449" spans="2:6">
+    <row r="449" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="18"/>
       <c r="F449" s="1"/>
     </row>
-    <row r="450" spans="2:6">
+    <row r="450" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="18"/>
       <c r="F450" s="1"/>
     </row>
-    <row r="451" spans="2:6">
+    <row r="451" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="18"/>
       <c r="F451" s="1"/>
     </row>
-    <row r="452" spans="2:6">
+    <row r="452" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="18"/>
       <c r="F452" s="1"/>
     </row>
-    <row r="453" spans="2:6">
+    <row r="453" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="18"/>
       <c r="F453" s="1"/>
     </row>
-    <row r="454" spans="2:6">
+    <row r="454" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="18"/>
       <c r="F454" s="1"/>
     </row>
-    <row r="455" spans="2:6">
+    <row r="455" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="18"/>
       <c r="F455" s="1"/>
     </row>
-    <row r="456" spans="2:6">
+    <row r="456" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="18"/>
       <c r="F456" s="1"/>
     </row>
-    <row r="457" spans="2:6">
+    <row r="457" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="18"/>
       <c r="F457" s="1"/>
     </row>
-    <row r="458" spans="2:6">
+    <row r="458" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="18"/>
       <c r="F458" s="1"/>
     </row>
-    <row r="459" spans="2:6">
+    <row r="459" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="18"/>
       <c r="F459" s="1"/>
     </row>
-    <row r="460" spans="2:6">
+    <row r="460" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="18"/>
       <c r="F460" s="1"/>
     </row>
-    <row r="461" spans="2:6">
+    <row r="461" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="18"/>
       <c r="F461" s="1"/>
     </row>
-    <row r="462" spans="2:6">
+    <row r="462" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="18"/>
       <c r="F462" s="1"/>
     </row>
-    <row r="463" spans="2:6">
+    <row r="463" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="18"/>
       <c r="F463" s="1"/>
     </row>
-    <row r="464" spans="2:6">
+    <row r="464" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="18"/>
       <c r="F464" s="1"/>
     </row>
-    <row r="465" spans="2:6">
+    <row r="465" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="18"/>
       <c r="F465" s="1"/>
     </row>
-    <row r="466" spans="2:6">
+    <row r="466" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="18"/>
       <c r="F466" s="1"/>
     </row>
-    <row r="467" spans="2:6">
+    <row r="467" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
@@ -4812,292 +4832,265 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C20" sqref="C1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="28">
+        <v>1</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
+        <v>2</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>3</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
+        <v>4</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>5</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>6</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="18.75">
-      <c r="B4" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="29">
-        <v>1</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="29">
-        <v>2</v>
-      </c>
-      <c r="C6" s="29" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>7</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>8</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>9</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="29">
-        <v>3</v>
-      </c>
-      <c r="C7" s="29" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <v>10</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="29">
-        <v>4</v>
-      </c>
-      <c r="C8" s="29" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
+        <v>11</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="28">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="29">
-        <v>5</v>
-      </c>
-      <c r="C9" s="29" t="s">
+      <c r="B12" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="28">
+        <v>13</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="28">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="29">
-        <v>6</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="29">
-        <v>7</v>
-      </c>
-      <c r="C11" s="29" t="s">
+      <c r="B14" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="28">
+        <v>15</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="28">
+        <v>16</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="28">
+        <v>17</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="28">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="29">
-        <v>8</v>
-      </c>
-      <c r="C12" s="29" t="s">
+      <c r="B18" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="28">
+        <v>19</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="29">
-        <v>9</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="29">
-        <v>10</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="29">
-        <v>11</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="29">
-        <v>12</v>
-      </c>
-      <c r="C16" s="29" t="s">
+      <c r="B20" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="28">
+        <v>21</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="28">
+        <v>22</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="28">
+        <v>23</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="28">
+        <v>24</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="28">
+        <v>25</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="28">
+        <v>26</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="28">
+        <v>27</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="28">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="29">
-        <v>13</v>
-      </c>
-      <c r="C17" s="29" t="s">
+      <c r="B28" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="28">
+        <v>29</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="28">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="29">
-        <v>14</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="29">
-        <v>15</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="29">
-        <v>16</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="29">
-        <v>17</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="29">
-        <v>18</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="29">
-        <v>19</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="29">
-        <v>20</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="29">
-        <v>21</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="29">
-        <v>22</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="29">
-        <v>23</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="29">
-        <v>24</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="29">
-        <v>25</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="29">
-        <v>26</v>
-      </c>
-      <c r="C30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="29">
-        <v>27</v>
-      </c>
-      <c r="C31" s="29" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="28">
+        <v>31</v>
+      </c>
+      <c r="B31" s="28" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="29">
-        <v>28</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="29">
-        <v>29</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="29">
-        <v>30</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="29">
-        <v>31</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5105,12 +5098,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/8c.xlsx
+++ b/Excel/8c.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Amit\Code\React\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Amit\Code\React.git\trunk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BAE2F1-EE86-460D-8E63-1CD59E7E7211}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989F976F-C76E-4407-9780-78158EA21D94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,112 +20,152 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>AAKANKSHA</t>
-  </si>
-  <si>
-    <t>ANKEET KUMAR SHARMA</t>
-  </si>
-  <si>
-    <t>ANKUSH KUMAR TIWARI</t>
-  </si>
-  <si>
-    <t>ASHWATHI B NAIR</t>
-  </si>
-  <si>
-    <t>CHANDAN G ACHAR</t>
-  </si>
-  <si>
-    <t>JAYESH K</t>
-  </si>
-  <si>
-    <t>K AALIYA ZEENATH</t>
-  </si>
-  <si>
-    <t>K VANSHIKA</t>
-  </si>
-  <si>
-    <t>KRITHIKA</t>
-  </si>
-  <si>
-    <t>PARINITHA RAJIV</t>
-  </si>
-  <si>
-    <t>R.SHARUNYA SAI</t>
-  </si>
-  <si>
-    <t>S SAM IMMANUEAL</t>
-  </si>
-  <si>
-    <t>SONAL.UT</t>
-  </si>
-  <si>
-    <t>ZOYA FATHIMA</t>
-  </si>
-  <si>
-    <t>ADISHESH.VS</t>
-  </si>
-  <si>
-    <t>AKHIL MANOJ</t>
-  </si>
-  <si>
-    <t>ANKUSH SAHA</t>
-  </si>
-  <si>
-    <t>FAMIDA YASN KHAN</t>
-  </si>
-  <si>
-    <t>HARI PRASAD</t>
-  </si>
-  <si>
-    <t>JANARDHANA G.</t>
-  </si>
-  <si>
-    <t>MATHEWS SHERIN</t>
-  </si>
-  <si>
-    <t>N P SAHANA</t>
-  </si>
-  <si>
-    <t>N. VAIBHAV</t>
-  </si>
-  <si>
-    <t>PRASIO MARTIN</t>
-  </si>
-  <si>
-    <t>RITIK BS</t>
-  </si>
-  <si>
-    <t>SIDDARTHA B</t>
-  </si>
-  <si>
-    <t>TAPISH</t>
-  </si>
-  <si>
-    <t>TARUN GIRISH</t>
-  </si>
-  <si>
-    <t>YASHASVI. D</t>
-  </si>
-  <si>
-    <t>INAN SANYAL</t>
-  </si>
-  <si>
-    <t>MANAV  DHAKA</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>AADI MISHRA</t>
+  </si>
+  <si>
+    <t>AARON JIBU JOHN</t>
+  </si>
+  <si>
+    <t>ABDUL ZAYYAN</t>
+  </si>
+  <si>
+    <t>ABHINAV</t>
+  </si>
+  <si>
+    <t>ADITYA SINGH</t>
+  </si>
+  <si>
+    <t>AGRIMA PANDEY</t>
+  </si>
+  <si>
+    <t>AMANVEER SINGH</t>
+  </si>
+  <si>
+    <t>ARYAN. R</t>
+  </si>
+  <si>
+    <t>AVIRAL VERMA</t>
+  </si>
+  <si>
+    <t>AYAAN A M</t>
+  </si>
+  <si>
+    <t>C.N. UJWAL YADAV</t>
+  </si>
+  <si>
+    <t>CHIRAG M</t>
+  </si>
+  <si>
+    <t>DARSHAN M.B.</t>
+  </si>
+  <si>
+    <t>DEEPTI HANAMANT PASODI</t>
+  </si>
+  <si>
+    <t>DHANYA G RAO</t>
+  </si>
+  <si>
+    <t>DHRUTHIK I P</t>
+  </si>
+  <si>
+    <t>HARSHITA RAWAT</t>
+  </si>
+  <si>
+    <t>HRIDAY SHETTY</t>
+  </si>
+  <si>
+    <t>J  MONISHA</t>
+  </si>
+  <si>
+    <t>K SUDHANVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M A KAUSTHUBHI </t>
+  </si>
+  <si>
+    <t>M SPOORTHI</t>
+  </si>
+  <si>
+    <t>MASOOM ARA</t>
+  </si>
+  <si>
+    <t>N GAUTHAM</t>
+  </si>
+  <si>
+    <t>NAVYA NAIR G J</t>
+  </si>
+  <si>
+    <t>NITHIN GANESH A</t>
+  </si>
+  <si>
+    <t>PAUL PUNITH</t>
+  </si>
+  <si>
+    <t>PRAGATHI N</t>
+  </si>
+  <si>
+    <t>R NAYANA UMESH</t>
+  </si>
+  <si>
+    <t>RABIA BASRI</t>
+  </si>
+  <si>
+    <t>RITIKA SURESH</t>
+  </si>
+  <si>
+    <t>ROHITH ROGER LEO</t>
+  </si>
+  <si>
+    <t>SANSKAR</t>
+  </si>
+  <si>
+    <t>SELINA S</t>
+  </si>
+  <si>
+    <t>SHARIKA M.</t>
+  </si>
+  <si>
+    <t>SIDDHARTH M RAO</t>
+  </si>
+  <si>
+    <t>TULASI T</t>
+  </si>
+  <si>
+    <t>V SHANKAR GURU</t>
+  </si>
+  <si>
+    <t>VAMSI CHAITANYA G.V.</t>
+  </si>
+  <si>
+    <t>YASHASVI</t>
+  </si>
+  <si>
+    <t>YUKTHA NARAYAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -145,30 +185,88 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{48442D86-AD9A-4132-9407-57C8001D7865}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,9 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -518,7 +618,7 @@
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -526,231 +626,231 @@
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>21</v>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>22</v>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>10</v>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>24</v>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>26</v>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>27</v>
+      <c r="B27" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>28</v>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>13</v>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -758,8 +858,88 @@
       <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>41</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
